--- a/examen/tweets_hater.xlsx
+++ b/examen/tweets_hater.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucia\Desktop\BAG_2023_2024\examen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{389AB6B6-9579-4893-B094-1D7B53D72340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31028D70-4C7E-4FE9-A001-75CC8E0048C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,101 +25,101 @@
     <t>message to examine</t>
   </si>
   <si>
-    <t>hating on me is still being obsessed with me</t>
-  </si>
-  <si>
-    <t>whatever you say man with big autistic eyes</t>
-  </si>
-  <si>
-    <t>first time getting a setlist at a concert tonight big day for me</t>
-  </si>
-  <si>
-    <t>wuthering heights to MOTHERing nights</t>
-  </si>
-  <si>
-    <t>this looks like a yearbook for a school where all the students are kafka</t>
-  </si>
-  <si>
-    <t>save me hot chocolate save me hot chocolate save me</t>
-  </si>
-  <si>
-    <t>i need a warm mint tea and a cat on my lap to get through this paper</t>
-  </si>
-  <si>
-    <t>yeah im ok i just need to nap for 8 hours</t>
-  </si>
-  <si>
-    <t>many many thoughts about John Cassavetes in Columbo</t>
-  </si>
-  <si>
-    <t>its ok i claim him as a honorary member of the autism club</t>
-  </si>
-  <si>
-    <t>went to Anna Karina?s grave yesterday. thank you for changing the trajectory of many 14yo girls (me)</t>
-  </si>
-  <si>
-    <t>finals kicking my ass</t>
-  </si>
-  <si>
-    <t>i lost my favorite necklace im so sad</t>
-  </si>
-  <si>
-    <t>This album invented post rock, math rock, post hardcore, experimental rock, shoegaze, screamo, metal, psychedelic rock, and jazz</t>
-  </si>
-  <si>
-    <t>[typing to chatgpt] are you ok computer?</t>
-  </si>
-  <si>
-    <t>how it feels to write more than five sentences for a review on letterboxd</t>
-  </si>
-  <si>
-    <t>WOKE TALKING HEADS: And you may find yourself in a beautiful house, with a beautiful they/them. &lt;Emoji: scary face&gt;</t>
-  </si>
-  <si>
-    <t>John Cassavetes holding a cat save me</t>
-  </si>
-  <si>
-    <t>my dead husband just noticed me x</t>
-  </si>
-  <si>
-    <t>what is wrong with him!!!!! (everything)</t>
-  </si>
-  <si>
-    <t>opened the dictionary to check if it had Kafka and it did and then i called it a day</t>
-  </si>
-  <si>
-    <t>i would like to thank all the people that stayed and lived through all my hyperfixations this year</t>
-  </si>
-  <si>
-    <t>happy belated birthday to Joan Didion</t>
-  </si>
-  <si>
-    <t>when i say i need a gun this is what i mean</t>
-  </si>
-  <si>
-    <t>can i come over and stare at you intensely</t>
-  </si>
-  <si>
-    <t>what do you think is harder than this? &lt;Emoji: person doing hard exercise&gt;: finishing that one book on your night shelf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">technicolor come back im not joking </t>
-  </si>
-  <si>
-    <t>thinking about how nasa sent snoopy in space for the artemis i mission</t>
-  </si>
-  <si>
-    <t>he had a snoopy sweatshirt, anger issues and a dream</t>
-  </si>
-  <si>
-    <t>stop saying blur is never going to reunite ever again im literally neurodivergent and have suicidal tendencies</t>
+    <t>Is the new season of True Detective as woke as we all assumed it was going to be?</t>
+  </si>
+  <si>
+    <t>They will continue to vote for all of the same political leaders who explicitly promise to make all of their problems worse while demanding that stores like Walgreens just volunteer to lose revenue by the millions. They will do everything but change their voting habits or take…</t>
+  </si>
+  <si>
+    <t>Delusional</t>
+  </si>
+  <si>
+    <t>Columbus's sins, both real and imagined, have been discussed ad nauseam. Everyone has talked about them. They are especially discussed on his holiday, which has all but been replaced at this point. MLK is only just now getting a small piece of what Columbus has gotten for years.…</t>
+  </si>
+  <si>
+    <t>No. I want every man to be held to the standard he sets for others. That is justice.</t>
+  </si>
+  <si>
+    <t>We need to start treating people with appropriate amounts of scorn and ridicule for recording this kind of stuff</t>
+  </si>
+  <si>
+    <t>He asked someone to film him while he helps his wife in the bathroom. I mean the level of narcissism here is off the Richter scale.</t>
+  </si>
+  <si>
+    <t>It's literally my job https://twitter.com/denimsodapop/status/1746695606943318313</t>
+  </si>
+  <si>
+    <t>This city of Phoenix just allowed something called “No Pants Light Rail Day” to take place. A group of adults rode public transportation in their underwear. Some of them wore fetish gear. Children were present. This is horrific. Every adult involved should be in jail.</t>
+  </si>
+  <si>
+    <t>I don't care that Trump attacked Vivek. They're running against each other. This is politics. It is what it is. But if your own professed opinion about Vivek has now changed on a dime because Trump said so, that says a lot more about you than it does about either of those guys.</t>
+  </si>
+  <si>
+    <t>If you don't want people to comment on your termination, don't record it and post it on the internet. Also, she's performing for the camera that the other party doesn't know is there. Absolutely nothing "genuine" about it.</t>
+  </si>
+  <si>
+    <t>First of all, don't complain about being a cog in the corporate machine if you went out and got a job as a cog in the corporate machine. Second, she hasn't closed a sale since August. It's not some kind of human rights violation to get fired from a sales job when you aren't…</t>
+  </si>
+  <si>
+    <t>You love that she recorded this because the self-destruction of her future career prospects doesn’t effect you. But she will not love that she recorded this when no employer ever hires her again after seeing how she secretly records meetings and posts them to social media for…</t>
+  </si>
+  <si>
+    <t>The secondhand embarrassment is overwhelming</t>
+  </si>
+  <si>
+    <t>Thank you for this serious analysis of my obviously totally sincere and serious statement, Jennifer</t>
+  </si>
+  <si>
+    <t>Dana, do you not realize that Media Matters is taking an obvious joke and pretending I was serious or are you pretending you don’t realize that? I understand why the humorless Left jumps on a Media Matters dogpile but not sure why you’re joining in.</t>
+  </si>
+  <si>
+    <t>Folks, calm down. Yes I said it’s gay to buy your wife a Valentine’s Day gift more than three days ahead of time but the good news is you can buy an anniversary gift up to six days ahead of time without becoming a homosexual. The science is settled on this.</t>
+  </si>
+  <si>
+    <t>Is this really because of my joke about Valentine’s Day? The bar to trend on this site is way too low at this point. Do better, everyone.</t>
+  </si>
+  <si>
+    <t>Serious question: when Media Matters takes a clip of me obviously joking around about something and posts it like it was meant to be serious analysis, are the rest of you pretending to not understand that it’s a joke or have you actually sincerely been fooled by Media Matters?</t>
+  </si>
+  <si>
+    <t>Rule #25 stipulates that none of my rules are arbitrary</t>
+  </si>
+  <si>
+    <t>Ladies and gentlemen, meet the “dream team” at the manufacturer that made the plane door that just blew off in the middle of a flight</t>
+  </si>
+  <si>
+    <t>Death by hanging for all involved. Do it publicly. That's the just and moral way to deal with these kinds of people.</t>
+  </si>
+  <si>
+    <t>RIP. It only had ten seconds worth of flavor but those ten seconds were rapturous.</t>
+  </si>
+  <si>
+    <t>This is ridiculous. Despite all of the constant fear mongering from our feminized society, tackle football is not a very dangerous sport for young kids. More kids that age range die from baseball injuries than any other sport. Will we ban that too?</t>
+  </si>
+  <si>
+    <t>Yeah it's an amazing coincidence. This guy, for the first time in his decades in public life, happened to forget that his mic was hot and also just so happened to be saying things unflattering to his rivals but not embarrassing for him personally. Wow what a crazy accident.</t>
+  </si>
+  <si>
+    <t>DEI is destroying the airline industry and lots of people will die because of it:</t>
+  </si>
+  <si>
+    <t>This is all totally absurd. The only people who are actually "underrepresented" in Hollywood, in comparison to their numbers in the general population, are white men.</t>
+  </si>
+  <si>
+    <t>Republicans who use the "white privilege" line against Hunter Biden, and conservatives who cheer them on, are all brain dead morons. You are affirming one of the Left's most toxic false narratives in an attempt to own the libs. You aren't. They own you. Hunter Biden has Biden…</t>
+  </si>
+  <si>
+    <t>On my show I warned that we’re going to see major airline disasters in the near future. Only a couple of weeks later, a hole blew open in the side of a plane in flight. Now we know that many planes have “loose bolts.” We’re well on our way to a major disaster. Quality and…</t>
+  </si>
+  <si>
+    <t>You could end this bullshit in five seconds simply by arresting the "protesters" and giving them lengthy prison sentences. Send just one of them to prison for five years and nobody ever does this again. It's that easy.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,6 +257,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0F1419"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0F1419"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -559,7 +573,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -602,12 +616,16 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -639,6 +657,7 @@
     <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Hipervínculo" xfId="42" builtinId="8"/>
     <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -961,167 +980,183 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A62"/>
+  <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:A62"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="21" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
@@ -1218,6 +1253,9 @@
       <c r="A62" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A10" r:id="rId1" display="https://twitter.com/denimsodapop/status/1746695606943318313" xr:uid="{8C562F11-50A5-4537-9A71-442B7C60C288}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>